--- a/outputs-HGR-r202-archive/p__Bacteroidota_train.xlsx
+++ b/outputs-HGR-r202-archive/p__Bacteroidota_train.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1611,7 +1611,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>label_13470_2_67_9.fasta</t>
+          <t>label_13414_6_24_21.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1629,7 +1629,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>label_14207_6_3_30.fasta</t>
+          <t>label_GCF_000195635_30.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1647,7 +1647,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>label_20287_6_53_25.fasta</t>
+          <t>label_UMGS1093_13.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1665,7 +1665,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>label_20298_2_23_31.fasta</t>
+          <t>label_UMGS1120_23.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1683,7 +1683,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>label_GCF_000233955_35.fasta</t>
+          <t>label_UMGS1120_64.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1701,7 +1701,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1005_33.fasta</t>
+          <t>label_UMGS1137_377.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1719,7 +1719,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS100_53.fasta</t>
+          <t>label_UMGS1198_135.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1737,7 +1737,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1025_38.fasta</t>
+          <t>label_UMGS1201_14.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1755,7 +1755,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1137_32.fasta</t>
+          <t>label_UMGS1265_42.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1773,7 +1773,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1155_172.fasta</t>
+          <t>label_UMGS1311_50.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1791,7 +1791,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1168_80.fasta</t>
+          <t>label_UMGS1342_59.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1809,7 +1809,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS120_15.fasta</t>
+          <t>label_UMGS1407_152.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1827,7 +1827,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1210_129.fasta</t>
+          <t>label_UMGS1450_168.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1845,7 +1845,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1213_127.fasta</t>
+          <t>label_UMGS1450_210.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1863,7 +1863,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1265_27.fasta</t>
+          <t>label_UMGS1452_28.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1881,7 +1881,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1280_18.fasta</t>
+          <t>label_UMGS1459_126.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1899,7 +1899,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1285_21.fasta</t>
+          <t>label_UMGS1464_114.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1917,7 +1917,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1292_9.fasta</t>
+          <t>label_UMGS1464_74.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1935,7 +1935,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1320_11.fasta</t>
+          <t>label_UMGS1511_70.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1953,7 +1953,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1352_69.fasta</t>
+          <t>label_UMGS1514_0.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1971,7 +1971,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1365_1.fasta</t>
+          <t>label_UMGS1524_142.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1989,7 +1989,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1399_45.fasta</t>
+          <t>label_UMGS1596_53.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2007,7 +2007,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1493_174.fasta</t>
+          <t>label_UMGS1741_3.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2025,7 +2025,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1496_85.fasta</t>
+          <t>label_UMGS1741_44.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2043,7 +2043,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1504_64.fasta</t>
+          <t>label_UMGS1762_95.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2061,7 +2061,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1561_1.fasta</t>
+          <t>label_UMGS178_9.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2079,7 +2079,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1596_19.fasta</t>
+          <t>label_UMGS1797_36.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2097,7 +2097,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1635_53.fasta</t>
+          <t>label_UMGS1829_228.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2115,7 +2115,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1762_158.fasta</t>
+          <t>label_UMGS1829_320.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2133,7 +2133,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1762_20.fasta</t>
+          <t>label_UMGS1845_151.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2151,7 +2151,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1829_226.fasta</t>
+          <t>label_UMGS1855_5.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2169,7 +2169,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1829_73.fasta</t>
+          <t>label_UMGS1869_197.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2187,7 +2187,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1855_35.fasta</t>
+          <t>label_UMGS1896_190.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2205,7 +2205,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1855_62.fasta</t>
+          <t>label_UMGS1909_124.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2223,7 +2223,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS187_25.fasta</t>
+          <t>label_UMGS1909_148.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2241,7 +2241,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1881_22.fasta</t>
+          <t>label_UMGS1909_154.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2259,7 +2259,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS18_51.fasta</t>
+          <t>label_UMGS1909_271.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2277,7 +2277,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1909_163.fasta</t>
+          <t>label_UMGS1946_68.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2295,7 +2295,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1912_84.fasta</t>
+          <t>label_UMGS1972_146.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2313,7 +2313,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1927_51.fasta</t>
+          <t>label_UMGS1990_40.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2331,7 +2331,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1977_190.fasta</t>
+          <t>label_UMGS1990_8.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2349,7 +2349,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1980_63.fasta</t>
+          <t>label_UMGS2034_21.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2367,7 +2367,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2004_10.fasta</t>
+          <t>label_UMGS2057_27.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2385,7 +2385,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2042_242.fasta</t>
+          <t>label_UMGS2075_77.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2403,7 +2403,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2042_365.fasta</t>
+          <t>label_UMGS239_30.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2421,7 +2421,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2042_388.fasta</t>
+          <t>label_UMGS288_73.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2439,7 +2439,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2051_0.fasta</t>
+          <t>label_UMGS333_13.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2457,7 +2457,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2051_50.fasta</t>
+          <t>label_UMGS480_54.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2475,7 +2475,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS206_9.fasta</t>
+          <t>label_UMGS490_64.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2493,7 +2493,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS333_56.fasta</t>
+          <t>label_UMGS493_77.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2511,7 +2511,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS355_15.fasta</t>
+          <t>label_UMGS499_44.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2529,7 +2529,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS355_18.fasta</t>
+          <t>label_UMGS541_105.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2547,7 +2547,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS373_19.fasta</t>
+          <t>label_UMGS541_54.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2565,7 +2565,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS407_37.fasta</t>
+          <t>label_UMGS560_90.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2583,7 +2583,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS440_62.fasta</t>
+          <t>label_UMGS569_115.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2601,7 +2601,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS440_76.fasta</t>
+          <t>label_UMGS607_57.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2619,7 +2619,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS48_3.fasta</t>
+          <t>label_UMGS626_9.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2637,7 +2637,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS501_29.fasta</t>
+          <t>label_UMGS628_53.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2655,7 +2655,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS712_48.fasta</t>
+          <t>label_UMGS657_34.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2673,7 +2673,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS715_0.fasta</t>
+          <t>label_UMGS746_17.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2691,7 +2691,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS816_32.fasta</t>
+          <t>label_UMGS871_30.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2709,7 +2709,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS868_21.fasta</t>
+          <t>label_UMGS879_15.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2727,7 +2727,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS871_112.fasta</t>
+          <t>label_UMGS937_13.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2745,7 +2745,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS879_40.fasta</t>
+          <t>label_UMGS984_164.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2763,7 +2763,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>label_13414_6_24_21.fasta</t>
+          <t>label_21673_4_46_5.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2781,7 +2781,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>label_GCF_000195635_30.fasta</t>
+          <t>label_GCF_000157935_20.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2799,7 +2799,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1093_13.fasta</t>
+          <t>label_GCF_000235885_31.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2817,7 +2817,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1120_23.fasta</t>
+          <t>label_UMGS1003_10.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2835,7 +2835,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1120_64.fasta</t>
+          <t>label_UMGS1025_5.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2853,7 +2853,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1137_377.fasta</t>
+          <t>label_UMGS1036_57.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2871,7 +2871,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1198_135.fasta</t>
+          <t>label_UMGS1227_138.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2889,7 +2889,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1201_14.fasta</t>
+          <t>label_UMGS1265_18.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2907,7 +2907,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1265_42.fasta</t>
+          <t>label_UMGS1294_30.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2925,7 +2925,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1311_50.fasta</t>
+          <t>label_UMGS1294_83.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2943,7 +2943,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1342_59.fasta</t>
+          <t>label_UMGS1352_139.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2961,7 +2961,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1407_152.fasta</t>
+          <t>label_UMGS1352_173.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2979,7 +2979,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1450_168.fasta</t>
+          <t>label_UMGS1390_161.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2997,7 +2997,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1450_210.fasta</t>
+          <t>label_UMGS1390_76.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3015,7 +3015,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1452_28.fasta</t>
+          <t>label_UMGS1390_90.fasta</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3033,7 +3033,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1459_126.fasta</t>
+          <t>label_UMGS1416_146.fasta</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3051,7 +3051,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1464_114.fasta</t>
+          <t>label_UMGS1416_158.fasta</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3069,7 +3069,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1464_74.fasta</t>
+          <t>label_UMGS1428_12.fasta</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3087,7 +3087,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1511_70.fasta</t>
+          <t>label_UMGS1430_13.fasta</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3105,7 +3105,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1514_0.fasta</t>
+          <t>label_UMGS1459_152.fasta</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -3123,7 +3123,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1524_142.fasta</t>
+          <t>label_UMGS1459_90.fasta</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3141,7 +3141,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1596_53.fasta</t>
+          <t>label_UMGS1493_118.fasta</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -3159,7 +3159,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1741_3.fasta</t>
+          <t>label_UMGS1496_34.fasta</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -3177,7 +3177,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1741_44.fasta</t>
+          <t>label_UMGS1504_133.fasta</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -3195,7 +3195,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1762_95.fasta</t>
+          <t>label_UMGS1505_81.fasta</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3213,7 +3213,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS178_9.fasta</t>
+          <t>label_UMGS1511_152.fasta</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -3231,7 +3231,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1797_36.fasta</t>
+          <t>label_UMGS1511_29.fasta</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -3249,7 +3249,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1829_228.fasta</t>
+          <t>label_UMGS1596_17.fasta</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -3267,7 +3267,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1829_320.fasta</t>
+          <t>label_UMGS1634_12.fasta</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -3285,7 +3285,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1845_151.fasta</t>
+          <t>label_UMGS166_52.fasta</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -3303,7 +3303,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1855_5.fasta</t>
+          <t>label_UMGS1697_32.fasta</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -3321,7 +3321,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1869_197.fasta</t>
+          <t>label_UMGS1768_179.fasta</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -3339,7 +3339,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1896_190.fasta</t>
+          <t>label_UMGS1829_239.fasta</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -3357,7 +3357,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1909_124.fasta</t>
+          <t>label_UMGS1845_11.fasta</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -3375,7 +3375,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1909_148.fasta</t>
+          <t>label_UMGS1855_8.fasta</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -3393,7 +3393,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1909_154.fasta</t>
+          <t>label_UMGS1869_156.fasta</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -3411,7 +3411,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1909_271.fasta</t>
+          <t>label_UMGS1869_99.fasta</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -3429,7 +3429,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1946_68.fasta</t>
+          <t>label_UMGS18_47.fasta</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3447,7 +3447,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1972_146.fasta</t>
+          <t>label_UMGS1918_36.fasta</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -3465,7 +3465,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1990_40.fasta</t>
+          <t>label_UMGS1918_60.fasta</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -3483,7 +3483,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1990_8.fasta</t>
+          <t>label_UMGS1980_80.fasta</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -3501,7 +3501,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2034_21.fasta</t>
+          <t>label_UMGS1990_109.fasta</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -3519,7 +3519,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2057_27.fasta</t>
+          <t>label_UMGS2020_41.fasta</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -3537,7 +3537,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2075_77.fasta</t>
+          <t>label_UMGS2034_14.fasta</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3555,7 +3555,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS239_30.fasta</t>
+          <t>label_UMGS2034_72.fasta</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -3573,7 +3573,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS288_73.fasta</t>
+          <t>label_UMGS2042_27.fasta</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -3591,7 +3591,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS333_13.fasta</t>
+          <t>label_UMGS2075_94.fasta</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -3609,7 +3609,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS480_54.fasta</t>
+          <t>label_UMGS219_173.fasta</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -3627,7 +3627,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS490_64.fasta</t>
+          <t>label_UMGS332_121.fasta</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -3645,7 +3645,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS493_77.fasta</t>
+          <t>label_UMGS346_19.fasta</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -3663,7 +3663,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS499_44.fasta</t>
+          <t>label_UMGS410_7.fasta</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -3681,7 +3681,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS541_105.fasta</t>
+          <t>label_UMGS50_7.fasta</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -3699,7 +3699,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS541_54.fasta</t>
+          <t>label_UMGS549_63.fasta</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -3717,7 +3717,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS560_90.fasta</t>
+          <t>label_UMGS569_158.fasta</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -3735,7 +3735,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS569_115.fasta</t>
+          <t>label_UMGS569_19.fasta</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -3753,7 +3753,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS607_57.fasta</t>
+          <t>label_UMGS580_64.fasta</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -3771,7 +3771,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS626_9.fasta</t>
+          <t>label_UMGS622_15.fasta</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -3789,7 +3789,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS628_53.fasta</t>
+          <t>label_UMGS647_121.fasta</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -3807,7 +3807,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS657_34.fasta</t>
+          <t>label_UMGS647_93.fasta</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -3825,7 +3825,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS746_17.fasta</t>
+          <t>label_UMGS769_100.fasta</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -3843,7 +3843,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS871_30.fasta</t>
+          <t>label_UMGS845_7.fasta</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -3861,7 +3861,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS879_15.fasta</t>
+          <t>label_UMGS889_102.fasta</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -3879,7 +3879,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS937_13.fasta</t>
+          <t>label_UMGS889_123.fasta</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -3897,7 +3897,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS984_164.fasta</t>
+          <t>label_UMGS903_100.fasta</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -3915,7 +3915,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>label_21673_4_46_5.fasta</t>
+          <t>label_UMGS950_39.fasta</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -3933,7 +3933,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>label_GCF_000157935_20.fasta</t>
+          <t>label_21673_4_46_32.fasta</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -3951,7 +3951,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>label_GCF_000235885_31.fasta</t>
+          <t>label_GCF_000187895_8.fasta</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -3969,7 +3969,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1003_10.fasta</t>
+          <t>label_UMGS1003_17.fasta</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3987,7 +3987,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1025_5.fasta</t>
+          <t>label_UMGS1005_48.fasta</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -4005,7 +4005,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1036_57.fasta</t>
+          <t>label_UMGS1007_59.fasta</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -4023,7 +4023,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1227_138.fasta</t>
+          <t>label_UMGS1049_135.fasta</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -4041,7 +4041,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1265_18.fasta</t>
+          <t>label_UMGS1063_18.fasta</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -4059,7 +4059,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1294_30.fasta</t>
+          <t>label_UMGS1065_6.fasta</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -4077,7 +4077,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1294_83.fasta</t>
+          <t>label_UMGS1085_31.fasta</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -4095,7 +4095,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1352_139.fasta</t>
+          <t>label_UMGS1085_86.fasta</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -4113,7 +4113,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1352_173.fasta</t>
+          <t>label_UMGS1105_13.fasta</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -4131,7 +4131,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1390_161.fasta</t>
+          <t>label_UMGS1126_110.fasta</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -4149,7 +4149,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1390_76.fasta</t>
+          <t>label_UMGS1130_70.fasta</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -4167,7 +4167,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1390_90.fasta</t>
+          <t>label_UMGS1137_285.fasta</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -4185,7 +4185,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1416_146.fasta</t>
+          <t>label_UMGS1137_85.fasta</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -4203,7 +4203,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1416_158.fasta</t>
+          <t>label_UMGS1162_39.fasta</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -4221,7 +4221,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1428_12.fasta</t>
+          <t>label_UMGS1164_28.fasta</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -4239,7 +4239,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1430_13.fasta</t>
+          <t>label_UMGS1179_113.fasta</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -4257,7 +4257,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1459_152.fasta</t>
+          <t>label_UMGS1179_35.fasta</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -4275,7 +4275,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1459_90.fasta</t>
+          <t>label_UMGS1198_8.fasta</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -4293,7 +4293,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1493_118.fasta</t>
+          <t>label_UMGS1201_35.fasta</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -4311,7 +4311,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1496_34.fasta</t>
+          <t>label_UMGS1208_10.fasta</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -4329,7 +4329,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1504_133.fasta</t>
+          <t>label_UMGS1227_114.fasta</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -4347,7 +4347,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1505_81.fasta</t>
+          <t>label_UMGS1257_111.fasta</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -4365,7 +4365,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1511_152.fasta</t>
+          <t>label_UMGS1292_28.fasta</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -4383,7 +4383,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1511_29.fasta</t>
+          <t>label_UMGS1365_5.fasta</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -4401,7 +4401,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1596_17.fasta</t>
+          <t>label_UMGS1407_121.fasta</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -4419,7 +4419,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1634_12.fasta</t>
+          <t>label_UMGS1416_149.fasta</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -4437,7 +4437,7 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS166_52.fasta</t>
+          <t>label_UMGS1430_71.fasta</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -4455,7 +4455,7 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1697_32.fasta</t>
+          <t>label_UMGS1446_26.fasta</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -4473,7 +4473,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1768_179.fasta</t>
+          <t>label_UMGS1464_186.fasta</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -4491,7 +4491,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1829_239.fasta</t>
+          <t>label_UMGS1464_92.fasta</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -4509,7 +4509,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1845_11.fasta</t>
+          <t>label_UMGS1584_103.fasta</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -4527,7 +4527,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1855_8.fasta</t>
+          <t>label_UMGS1598_45.fasta</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -4545,7 +4545,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1869_156.fasta</t>
+          <t>label_UMGS1645_80.fasta</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -4563,7 +4563,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1869_99.fasta</t>
+          <t>label_UMGS1704_72.fasta</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -4581,7 +4581,7 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS18_47.fasta</t>
+          <t>label_UMGS1710_221.fasta</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -4599,7 +4599,7 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1918_36.fasta</t>
+          <t>label_UMGS1768_27.fasta</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -4617,7 +4617,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1918_60.fasta</t>
+          <t>label_UMGS1768_43.fasta</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -4635,7 +4635,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1980_80.fasta</t>
+          <t>label_UMGS1797_157.fasta</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -4653,7 +4653,7 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1990_109.fasta</t>
+          <t>label_UMGS1869_205.fasta</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -4671,7 +4671,7 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2020_41.fasta</t>
+          <t>label_UMGS1909_225.fasta</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -4689,7 +4689,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2034_14.fasta</t>
+          <t>label_UMGS1909_265.fasta</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -4707,7 +4707,7 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2034_72.fasta</t>
+          <t>label_UMGS1912_5.fasta</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -4725,7 +4725,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2042_27.fasta</t>
+          <t>label_UMGS1929_50.fasta</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -4743,7 +4743,7 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2075_94.fasta</t>
+          <t>label_UMGS1972_1.fasta</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -4761,7 +4761,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS219_173.fasta</t>
+          <t>label_UMGS2007_161.fasta</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -4779,7 +4779,7 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS332_121.fasta</t>
+          <t>label_UMGS2007_164.fasta</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -4797,7 +4797,7 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS346_19.fasta</t>
+          <t>label_UMGS2042_414.fasta</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -4815,7 +4815,7 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS410_7.fasta</t>
+          <t>label_UMGS2075_250.fasta</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -4833,7 +4833,7 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS50_7.fasta</t>
+          <t>label_UMGS244_8.fasta</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -4851,7 +4851,7 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS549_63.fasta</t>
+          <t>label_UMGS332_87.fasta</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -4869,7 +4869,7 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS569_158.fasta</t>
+          <t>label_UMGS373_74.fasta</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -4887,7 +4887,7 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS569_19.fasta</t>
+          <t>label_UMGS499_124.fasta</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -4905,7 +4905,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS580_64.fasta</t>
+          <t>label_UMGS541_2.fasta</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -4923,7 +4923,7 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS622_15.fasta</t>
+          <t>label_UMGS549_112.fasta</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -4941,7 +4941,7 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS647_121.fasta</t>
+          <t>label_UMGS560_117.fasta</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -4959,7 +4959,7 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS647_93.fasta</t>
+          <t>label_UMGS569_105.fasta</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -4977,7 +4977,7 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS769_100.fasta</t>
+          <t>label_UMGS569_116.fasta</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -4995,7 +4995,7 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS845_7.fasta</t>
+          <t>label_UMGS628_84.fasta</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -5013,7 +5013,7 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS889_102.fasta</t>
+          <t>label_UMGS816_105.fasta</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -5031,7 +5031,7 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS889_123.fasta</t>
+          <t>label_UMGS842_57.fasta</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -5049,7 +5049,7 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS903_100.fasta</t>
+          <t>label_UMGS884_19.fasta</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -5067,7 +5067,7 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS950_39.fasta</t>
+          <t>label_UMGS890_27.fasta</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -5085,7 +5085,7 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>label_21673_4_46_32.fasta</t>
+          <t>label_UMGS963_1.fasta</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -5103,7 +5103,7 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>label_GCF_000187895_8.fasta</t>
+          <t>label_GCF_000157915_19.fasta</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -5121,7 +5121,7 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1003_17.fasta</t>
+          <t>label_GCF_000195635_5.fasta</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -5139,7 +5139,7 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1005_48.fasta</t>
+          <t>label_UMGS1005_102.fasta</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -5157,7 +5157,7 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1007_59.fasta</t>
+          <t>label_UMGS1025_12.fasta</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -5175,7 +5175,7 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1049_135.fasta</t>
+          <t>label_UMGS1049_5.fasta</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -5193,7 +5193,7 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1063_18.fasta</t>
+          <t>label_UMGS1063_92.fasta</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -5211,7 +5211,7 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1065_6.fasta</t>
+          <t>label_UMGS1085_110.fasta</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -5229,7 +5229,7 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1085_31.fasta</t>
+          <t>label_UMGS1093_33.fasta</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -5247,7 +5247,7 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1085_86.fasta</t>
+          <t>label_UMGS1111_68.fasta</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -5265,7 +5265,7 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1105_13.fasta</t>
+          <t>label_UMGS1137_278.fasta</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -5283,7 +5283,7 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1126_110.fasta</t>
+          <t>label_UMGS1155_150.fasta</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -5301,7 +5301,7 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1130_70.fasta</t>
+          <t>label_UMGS1155_17.fasta</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -5319,7 +5319,7 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1137_285.fasta</t>
+          <t>label_UMGS1155_178.fasta</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -5337,7 +5337,7 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1137_85.fasta</t>
+          <t>label_UMGS1155_185.fasta</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -5355,7 +5355,7 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1162_39.fasta</t>
+          <t>label_UMGS1168_89.fasta</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -5373,7 +5373,7 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1164_28.fasta</t>
+          <t>label_UMGS1198_164.fasta</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -5391,7 +5391,7 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1179_113.fasta</t>
+          <t>label_UMGS1210_95.fasta</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -5409,7 +5409,7 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1179_35.fasta</t>
+          <t>label_UMGS1227_14.fasta</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -5427,7 +5427,7 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1198_8.fasta</t>
+          <t>label_UMGS1257_45.fasta</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -5445,7 +5445,7 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1201_35.fasta</t>
+          <t>label_UMGS1257_65.fasta</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -5463,7 +5463,7 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1208_10.fasta</t>
+          <t>label_UMGS1294_91.fasta</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -5481,7 +5481,7 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1227_114.fasta</t>
+          <t>label_UMGS1352_60.fasta</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -5499,7 +5499,7 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1257_111.fasta</t>
+          <t>label_UMGS1459_57.fasta</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -5517,7 +5517,7 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1292_28.fasta</t>
+          <t>label_UMGS1464_215.fasta</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -5535,7 +5535,7 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1365_5.fasta</t>
+          <t>label_UMGS1524_144.fasta</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -5553,7 +5553,7 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1407_121.fasta</t>
+          <t>label_UMGS1561_35.fasta</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -5571,7 +5571,7 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1416_149.fasta</t>
+          <t>label_UMGS1635_0.fasta</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -5589,7 +5589,7 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1430_71.fasta</t>
+          <t>label_UMGS1674_173.fasta</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -5607,7 +5607,7 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1446_26.fasta</t>
+          <t>label_UMGS1697_6.fasta</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -5625,7 +5625,7 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1464_186.fasta</t>
+          <t>label_UMGS1704_98.fasta</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -5643,7 +5643,7 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1464_92.fasta</t>
+          <t>label_UMGS1714_34.fasta</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -5661,7 +5661,7 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1584_103.fasta</t>
+          <t>label_UMGS1748_137.fasta</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -5679,7 +5679,7 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1598_45.fasta</t>
+          <t>label_UMGS1762_103.fasta</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -5697,7 +5697,7 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1645_80.fasta</t>
+          <t>label_UMGS1768_21.fasta</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -5715,7 +5715,7 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1704_72.fasta</t>
+          <t>label_UMGS1769_99.fasta</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -5733,7 +5733,7 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1710_221.fasta</t>
+          <t>label_UMGS1787_24.fasta</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -5751,7 +5751,7 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1768_27.fasta</t>
+          <t>label_UMGS1829_230.fasta</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -5769,7 +5769,7 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1768_43.fasta</t>
+          <t>label_UMGS1845_45.fasta</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -5787,7 +5787,7 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1797_157.fasta</t>
+          <t>label_UMGS1896_211.fasta</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -5805,7 +5805,7 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1869_205.fasta</t>
+          <t>label_UMGS1902_63.fasta</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -5823,7 +5823,7 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1909_225.fasta</t>
+          <t>label_UMGS1909_211.fasta</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -5841,7 +5841,7 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1909_265.fasta</t>
+          <t>label_UMGS1956_49.fasta</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -5859,7 +5859,7 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1912_5.fasta</t>
+          <t>label_UMGS2007_257.fasta</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -5877,7 +5877,7 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1929_50.fasta</t>
+          <t>label_UMGS2042_144.fasta</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -5895,7 +5895,7 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS1972_1.fasta</t>
+          <t>label_UMGS2057_59.fasta</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -5913,7 +5913,7 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2007_161.fasta</t>
+          <t>label_UMGS206_62.fasta</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -5931,7 +5931,7 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2007_164.fasta</t>
+          <t>label_UMGS244_25.fasta</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -5949,7 +5949,7 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2042_414.fasta</t>
+          <t>label_UMGS29_20.fasta</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -5967,7 +5967,7 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS2075_250.fasta</t>
+          <t>label_UMGS432_77.fasta</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -5985,7 +5985,7 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS244_8.fasta</t>
+          <t>label_UMGS440_84.fasta</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -6003,7 +6003,7 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS332_87.fasta</t>
+          <t>label_UMGS451_0.fasta</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -6021,7 +6021,7 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS373_74.fasta</t>
+          <t>label_UMGS451_33.fasta</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -6039,7 +6039,7 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS499_124.fasta</t>
+          <t>label_UMGS499_131.fasta</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -6057,7 +6057,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS541_2.fasta</t>
+          <t>label_UMGS560_78.fasta</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -6075,7 +6075,7 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS549_112.fasta</t>
+          <t>label_UMGS607_7.fasta</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -6093,7 +6093,7 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS560_117.fasta</t>
+          <t>label_UMGS630_15.fasta</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -6111,7 +6111,7 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS569_105.fasta</t>
+          <t>label_UMGS630_25.fasta</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -6129,7 +6129,7 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS569_116.fasta</t>
+          <t>label_UMGS746_59.fasta</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -6147,7 +6147,7 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS628_84.fasta</t>
+          <t>label_UMGS780_37.fasta</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -6165,7 +6165,7 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS816_105.fasta</t>
+          <t>label_UMGS816_101.fasta</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -6183,7 +6183,7 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS842_57.fasta</t>
+          <t>label_UMGS835_49.fasta</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -6201,7 +6201,7 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS884_19.fasta</t>
+          <t>label_UMGS884_4.fasta</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -6219,7 +6219,7 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS890_27.fasta</t>
+          <t>label_UMGS899_45.fasta</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -6237,7 +6237,7 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>label_UMGS963_1.fasta</t>
+          <t>label_UMGS971_180.fasta</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -6247,1158 +6247,6 @@
         <v>1</v>
       </c>
       <c r="D323" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="inlineStr">
-        <is>
-          <t>label_GCF_000157915_19.fasta</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>1</v>
-      </c>
-      <c r="C324" t="n">
-        <v>1</v>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="inlineStr">
-        <is>
-          <t>label_GCF_000195635_5.fasta</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>1</v>
-      </c>
-      <c r="C325" t="n">
-        <v>1</v>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1005_102.fasta</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>1</v>
-      </c>
-      <c r="C326" t="n">
-        <v>1</v>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1025_12.fasta</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>1</v>
-      </c>
-      <c r="C327" t="n">
-        <v>1</v>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1049_5.fasta</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>1</v>
-      </c>
-      <c r="C328" t="n">
-        <v>1</v>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1063_92.fasta</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>1</v>
-      </c>
-      <c r="C329" t="n">
-        <v>1</v>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1085_110.fasta</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>1</v>
-      </c>
-      <c r="C330" t="n">
-        <v>1</v>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1093_33.fasta</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>1</v>
-      </c>
-      <c r="C331" t="n">
-        <v>1</v>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1111_68.fasta</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>1</v>
-      </c>
-      <c r="C332" t="n">
-        <v>1</v>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1137_278.fasta</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>1</v>
-      </c>
-      <c r="C333" t="n">
-        <v>1</v>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1155_150.fasta</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>1</v>
-      </c>
-      <c r="C334" t="n">
-        <v>1</v>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1155_17.fasta</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>1</v>
-      </c>
-      <c r="C335" t="n">
-        <v>1</v>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1155_178.fasta</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>1</v>
-      </c>
-      <c r="C336" t="n">
-        <v>1</v>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1155_185.fasta</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>1</v>
-      </c>
-      <c r="C337" t="n">
-        <v>1</v>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1168_89.fasta</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>1</v>
-      </c>
-      <c r="C338" t="n">
-        <v>1</v>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1198_164.fasta</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>1</v>
-      </c>
-      <c r="C339" t="n">
-        <v>1</v>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1210_95.fasta</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>1</v>
-      </c>
-      <c r="C340" t="n">
-        <v>1</v>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1227_14.fasta</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>1</v>
-      </c>
-      <c r="C341" t="n">
-        <v>1</v>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1257_45.fasta</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>1</v>
-      </c>
-      <c r="C342" t="n">
-        <v>1</v>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1257_65.fasta</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>1</v>
-      </c>
-      <c r="C343" t="n">
-        <v>1</v>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1294_91.fasta</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>1</v>
-      </c>
-      <c r="C344" t="n">
-        <v>1</v>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1352_60.fasta</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>1</v>
-      </c>
-      <c r="C345" t="n">
-        <v>1</v>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1459_57.fasta</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>1</v>
-      </c>
-      <c r="C346" t="n">
-        <v>1</v>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1464_215.fasta</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>1</v>
-      </c>
-      <c r="C347" t="n">
-        <v>1</v>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1524_144.fasta</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>1</v>
-      </c>
-      <c r="C348" t="n">
-        <v>1</v>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1561_35.fasta</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>1</v>
-      </c>
-      <c r="C349" t="n">
-        <v>1</v>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1635_0.fasta</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>1</v>
-      </c>
-      <c r="C350" t="n">
-        <v>1</v>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1674_173.fasta</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>1</v>
-      </c>
-      <c r="C351" t="n">
-        <v>1</v>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1697_6.fasta</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>1</v>
-      </c>
-      <c r="C352" t="n">
-        <v>1</v>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1704_98.fasta</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>1</v>
-      </c>
-      <c r="C353" t="n">
-        <v>1</v>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1714_34.fasta</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>1</v>
-      </c>
-      <c r="C354" t="n">
-        <v>1</v>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1748_137.fasta</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>1</v>
-      </c>
-      <c r="C355" t="n">
-        <v>1</v>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1762_103.fasta</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>1</v>
-      </c>
-      <c r="C356" t="n">
-        <v>1</v>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1768_21.fasta</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>1</v>
-      </c>
-      <c r="C357" t="n">
-        <v>1</v>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1769_99.fasta</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>1</v>
-      </c>
-      <c r="C358" t="n">
-        <v>1</v>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1787_24.fasta</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>1</v>
-      </c>
-      <c r="C359" t="n">
-        <v>1</v>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1829_230.fasta</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>1</v>
-      </c>
-      <c r="C360" t="n">
-        <v>1</v>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1845_45.fasta</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>1</v>
-      </c>
-      <c r="C361" t="n">
-        <v>1</v>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1896_211.fasta</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>1</v>
-      </c>
-      <c r="C362" t="n">
-        <v>1</v>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1902_63.fasta</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>1</v>
-      </c>
-      <c r="C363" t="n">
-        <v>1</v>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1909_211.fasta</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>1</v>
-      </c>
-      <c r="C364" t="n">
-        <v>1</v>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS1956_49.fasta</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>1</v>
-      </c>
-      <c r="C365" t="n">
-        <v>1</v>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS2007_257.fasta</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>1</v>
-      </c>
-      <c r="C366" t="n">
-        <v>1</v>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS2042_144.fasta</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>1</v>
-      </c>
-      <c r="C367" t="n">
-        <v>1</v>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS2057_59.fasta</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>1</v>
-      </c>
-      <c r="C368" t="n">
-        <v>1</v>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS206_62.fasta</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>1</v>
-      </c>
-      <c r="C369" t="n">
-        <v>1</v>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS244_25.fasta</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>1</v>
-      </c>
-      <c r="C370" t="n">
-        <v>1</v>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS29_20.fasta</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>1</v>
-      </c>
-      <c r="C371" t="n">
-        <v>1</v>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS432_77.fasta</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>1</v>
-      </c>
-      <c r="C372" t="n">
-        <v>1</v>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS440_84.fasta</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>1</v>
-      </c>
-      <c r="C373" t="n">
-        <v>1</v>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS451_0.fasta</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>1</v>
-      </c>
-      <c r="C374" t="n">
-        <v>1</v>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS451_33.fasta</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>1</v>
-      </c>
-      <c r="C375" t="n">
-        <v>1</v>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS499_131.fasta</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>1</v>
-      </c>
-      <c r="C376" t="n">
-        <v>1</v>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS560_78.fasta</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>1</v>
-      </c>
-      <c r="C377" t="n">
-        <v>1</v>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS607_7.fasta</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>1</v>
-      </c>
-      <c r="C378" t="n">
-        <v>1</v>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS630_15.fasta</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>1</v>
-      </c>
-      <c r="C379" t="n">
-        <v>1</v>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS630_25.fasta</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>1</v>
-      </c>
-      <c r="C380" t="n">
-        <v>1</v>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS746_59.fasta</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>1</v>
-      </c>
-      <c r="C381" t="n">
-        <v>1</v>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS780_37.fasta</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>1</v>
-      </c>
-      <c r="C382" t="n">
-        <v>1</v>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS816_101.fasta</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>1</v>
-      </c>
-      <c r="C383" t="n">
-        <v>1</v>
-      </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS835_49.fasta</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>1</v>
-      </c>
-      <c r="C384" t="n">
-        <v>1</v>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS884_4.fasta</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>1</v>
-      </c>
-      <c r="C385" t="n">
-        <v>1</v>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS899_45.fasta</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>1</v>
-      </c>
-      <c r="C386" t="n">
-        <v>1</v>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="inlineStr">
-        <is>
-          <t>label_UMGS971_180.fasta</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>1</v>
-      </c>
-      <c r="C387" t="n">
-        <v>1</v>
-      </c>
-      <c r="D387" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
